--- a/data/例题数据.xlsx
+++ b/data/例题数据.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\pythonEconometrics\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BB21CE-7409-4F73-AD9A-4A0C750D0F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="16605" windowHeight="7560" activeTab="4"/>
+    <workbookView xWindow="1150" yWindow="1110" windowWidth="18250" windowHeight="8430" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.6.1" sheetId="1" r:id="rId1"/>
@@ -22,12 +28,23 @@
     <sheet name="6.3.1" sheetId="11" r:id="rId13"/>
     <sheet name="6.3.4" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="338">
   <si>
     <t>可支配收入</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3430,7 +3447,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
@@ -3438,9 +3455,9 @@
     <numFmt numFmtId="179" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="181" formatCode="0.0000_ "/>
-    <numFmt numFmtId="183" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3689,6 +3706,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3797,7 +3822,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3886,7 +3911,7 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4233,17 +4258,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4285,7 +4321,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4317,9 +4353,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4351,6 +4405,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4526,19 +4598,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>125</v>
       </c>
@@ -4548,7 +4620,7 @@
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>35</v>
       </c>
@@ -4558,7 +4630,7 @@
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -4566,7 +4638,7 @@
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="139"/>
       <c r="B4" s="140" t="s">
         <v>0</v>
@@ -4578,7 +4650,7 @@
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="137"/>
       <c r="B5" s="138" t="s">
         <v>2</v>
@@ -4590,7 +4662,7 @@
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>4</v>
       </c>
@@ -4604,7 +4676,7 @@
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>5</v>
       </c>
@@ -4618,7 +4690,7 @@
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>6</v>
       </c>
@@ -4632,7 +4704,7 @@
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>7</v>
       </c>
@@ -4646,7 +4718,7 @@
       <c r="E9" s="25"/>
       <c r="F9" s="29"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>8</v>
       </c>
@@ -4660,7 +4732,7 @@
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>9</v>
       </c>
@@ -4674,7 +4746,7 @@
       <c r="E11" s="29"/>
       <c r="F11" s="25"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>10</v>
       </c>
@@ -4688,7 +4760,7 @@
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>11</v>
       </c>
@@ -4702,7 +4774,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="29"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>12</v>
       </c>
@@ -4716,7 +4788,7 @@
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>13</v>
       </c>
@@ -4730,7 +4802,7 @@
       <c r="E15" s="29"/>
       <c r="F15" s="25"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>14</v>
       </c>
@@ -4744,7 +4816,7 @@
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>15</v>
       </c>
@@ -4758,7 +4830,7 @@
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>16</v>
       </c>
@@ -4772,7 +4844,7 @@
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>17</v>
       </c>
@@ -4786,7 +4858,7 @@
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>18</v>
       </c>
@@ -4800,7 +4872,7 @@
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>19</v>
       </c>
@@ -4814,7 +4886,7 @@
       <c r="E21" s="25"/>
       <c r="F21" s="29"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>20</v>
       </c>
@@ -4828,7 +4900,7 @@
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>21</v>
       </c>
@@ -4842,7 +4914,7 @@
       <c r="E23" s="29"/>
       <c r="F23" s="25"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>22</v>
       </c>
@@ -4856,7 +4928,7 @@
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>23</v>
       </c>
@@ -4870,7 +4942,7 @@
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>24</v>
       </c>
@@ -4884,7 +4956,7 @@
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>25</v>
       </c>
@@ -4898,7 +4970,7 @@
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>26</v>
       </c>
@@ -4912,7 +4984,7 @@
       <c r="E28" s="25"/>
       <c r="F28" s="29"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>27</v>
       </c>
@@ -4926,7 +4998,7 @@
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>28</v>
       </c>
@@ -4940,7 +5012,7 @@
       <c r="E30" s="29"/>
       <c r="F30" s="25"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>29</v>
       </c>
@@ -4954,7 +5026,7 @@
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>30</v>
       </c>
@@ -4968,7 +5040,7 @@
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>31</v>
       </c>
@@ -4982,7 +5054,7 @@
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>32</v>
       </c>
@@ -4996,7 +5068,7 @@
       <c r="E34" s="25"/>
       <c r="F34" s="29"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
         <v>33</v>
       </c>
@@ -5010,7 +5082,7 @@
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>34</v>
       </c>
@@ -5024,7 +5096,7 @@
       <c r="E36" s="29"/>
       <c r="F36" s="25"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
     </row>
   </sheetData>
@@ -5034,26 +5106,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="63"/>
       <c r="B2" s="63" t="s">
         <v>319</v>
@@ -5065,7 +5137,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
         <v>320</v>
       </c>
@@ -5083,7 +5155,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -5097,7 +5169,7 @@
         <v>7317.2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>2</v>
       </c>
@@ -5111,7 +5183,7 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>3</v>
       </c>
@@ -5125,7 +5197,7 @@
         <v>2194.6999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>4</v>
       </c>
@@ -5139,7 +5211,7 @@
         <v>1992.7</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>5</v>
       </c>
@@ -5153,7 +5225,7 @@
         <v>781.1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>6</v>
       </c>
@@ -5167,7 +5239,7 @@
         <v>2064.3000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>7</v>
       </c>
@@ -5181,7 +5253,7 @@
         <v>1017.9</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>8</v>
       </c>
@@ -5195,7 +5267,7 @@
         <v>929.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>9</v>
       </c>
@@ -5209,7 +5281,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>10</v>
       </c>
@@ -5223,7 +5295,7 @@
         <v>4315.3</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>11</v>
       </c>
@@ -5237,7 +5309,7 @@
         <v>5531.7</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>12</v>
       </c>
@@ -5251,7 +5323,7 @@
         <v>1496.3</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>13</v>
       </c>
@@ -5265,7 +5337,7 @@
         <v>3143.4</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>14</v>
       </c>
@@ -5279,7 +5351,7 @@
         <v>1850.3</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>15</v>
       </c>
@@ -5293,7 +5365,7 @@
         <v>2420.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>16</v>
       </c>
@@ -5307,7 +5379,7 @@
         <v>1416.4</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>17</v>
       </c>
@@ -5321,7 +5393,7 @@
         <v>1484.8</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>18</v>
       </c>
@@ -5335,7 +5407,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>19</v>
       </c>
@@ -5349,7 +5421,7 @@
         <v>3765.9</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>20</v>
       </c>
@@ -5363,7 +5435,7 @@
         <v>1173.5999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>21</v>
       </c>
@@ -5377,7 +5449,7 @@
         <v>1042.3</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>22</v>
       </c>
@@ -5391,7 +5463,7 @@
         <v>1639.7</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>23</v>
       </c>
@@ -5405,7 +5477,7 @@
         <v>1597.4</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>24</v>
       </c>
@@ -5419,7 +5491,7 @@
         <v>1023.2</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>25</v>
       </c>
@@ -5433,7 +5505,7 @@
         <v>680.2</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>26</v>
       </c>
@@ -5447,7 +5519,7 @@
         <v>1035.9000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>27</v>
       </c>
@@ -5461,7 +5533,7 @@
         <v>1189.8</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>28</v>
       </c>
@@ -5475,7 +5547,7 @@
         <v>966.2</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>29</v>
       </c>
@@ -5489,7 +5561,7 @@
         <v>1084.0999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>30</v>
       </c>
@@ -5503,7 +5575,7 @@
         <v>1224.4000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>31</v>
       </c>
@@ -5517,7 +5589,7 @@
         <v>469.9</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>32</v>
       </c>
@@ -5531,7 +5603,7 @@
         <v>2709.3</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>33</v>
       </c>
@@ -5545,7 +5617,7 @@
         <v>2324.1999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>34</v>
       </c>
@@ -5559,7 +5631,7 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>35</v>
       </c>
@@ -5573,7 +5645,7 @@
         <v>1829.2</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>36</v>
       </c>
@@ -5587,7 +5659,7 @@
         <v>1880.1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>37</v>
       </c>
@@ -5601,7 +5673,7 @@
         <v>5062.3</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>38</v>
       </c>
@@ -5615,7 +5687,7 @@
         <v>2270.3000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>39</v>
       </c>
@@ -5629,7 +5701,7 @@
         <v>2380.6999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>40</v>
       </c>
@@ -5643,7 +5715,7 @@
         <v>2990.2</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>41</v>
       </c>
@@ -5657,7 +5729,7 @@
         <v>1916.6</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>42</v>
       </c>
@@ -5671,7 +5743,7 @@
         <v>2207.3000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>43</v>
       </c>
@@ -5685,7 +5757,7 @@
         <v>2652.4</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>44</v>
       </c>
@@ -5699,7 +5771,7 @@
         <v>2390.1999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>45</v>
       </c>
@@ -5713,7 +5785,7 @@
         <v>1462.3</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>46</v>
       </c>
@@ -5727,7 +5799,7 @@
         <v>1090.5</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>47</v>
       </c>
@@ -5741,7 +5813,7 @@
         <v>1867.6</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>48</v>
       </c>
@@ -5755,7 +5827,7 @@
         <v>1397.4</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>49</v>
       </c>
@@ -5769,7 +5841,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>50</v>
       </c>
@@ -5791,26 +5863,26 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>122</v>
       </c>
       <c r="B1" s="63"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="104" t="s">
         <v>321</v>
       </c>
@@ -5818,7 +5890,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
@@ -5826,7 +5898,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="105">
         <v>100</v>
       </c>
@@ -5834,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="105">
         <v>200</v>
       </c>
@@ -5842,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="105">
         <v>300</v>
       </c>
@@ -5850,7 +5922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="105">
         <v>400</v>
       </c>
@@ -5858,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="105">
         <v>500</v>
       </c>
@@ -5866,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="105">
         <v>600</v>
       </c>
@@ -5874,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="105">
         <v>700</v>
       </c>
@@ -5882,7 +5954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="105">
         <v>800</v>
       </c>
@@ -5890,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="105">
         <v>900</v>
       </c>
@@ -5898,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="105">
         <v>1000</v>
       </c>
@@ -5906,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="105">
         <v>1100</v>
       </c>
@@ -5914,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="105">
         <v>1200</v>
       </c>
@@ -5922,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="105">
         <v>1300</v>
       </c>
@@ -5930,7 +6002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="105">
         <v>1400</v>
       </c>
@@ -5938,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="105">
         <v>1500</v>
       </c>
@@ -5946,7 +6018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="105">
         <v>1600</v>
       </c>
@@ -5954,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="105">
         <v>1700</v>
       </c>
@@ -5962,7 +6034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="105">
         <v>1800</v>
       </c>
@@ -5970,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="105">
         <v>1900</v>
       </c>
@@ -5978,7 +6050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="105">
         <v>2000</v>
       </c>
@@ -5986,7 +6058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="105">
         <v>2100</v>
       </c>
@@ -5994,7 +6066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="105">
         <v>2200</v>
       </c>
@@ -6002,7 +6074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="105">
         <v>2300</v>
       </c>
@@ -6010,7 +6082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="105">
         <v>2400</v>
       </c>
@@ -6018,7 +6090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="105">
         <v>2500</v>
       </c>
@@ -6026,7 +6098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="105">
         <v>2600</v>
       </c>
@@ -6034,7 +6106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="105">
         <v>2700</v>
       </c>
@@ -6042,7 +6114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="105">
         <v>2800</v>
       </c>
@@ -6050,7 +6122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="105">
         <v>2900</v>
       </c>
@@ -6058,7 +6130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="105">
         <v>3000</v>
       </c>
@@ -6074,25 +6146,25 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:P98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="63"/>
       <c r="B2" s="64" t="s">
         <v>325</v>
@@ -6104,7 +6176,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
         <v>123</v>
       </c>
@@ -6130,7 +6202,7 @@
       <c r="O3" s="105"/>
       <c r="P3" s="105"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6156,7 +6228,7 @@
       <c r="O4" s="107"/>
       <c r="P4" s="109"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>A4+1</f>
         <v>2</v>
@@ -6183,7 +6255,7 @@
       <c r="O5" s="107"/>
       <c r="P5" s="109"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ref="A6:A69" si="0">A5+1</f>
         <v>3</v>
@@ -6210,7 +6282,7 @@
       <c r="O6" s="107"/>
       <c r="P6" s="110"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6237,7 +6309,7 @@
       <c r="O7" s="107"/>
       <c r="P7" s="109"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6264,7 +6336,7 @@
       <c r="O8" s="111"/>
       <c r="P8" s="109"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6291,7 +6363,7 @@
       <c r="O9" s="107"/>
       <c r="P9" s="109"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6318,7 +6390,7 @@
       <c r="O10" s="107"/>
       <c r="P10" s="109"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6345,7 +6417,7 @@
       <c r="O11" s="107"/>
       <c r="P11" s="109"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6372,7 +6444,7 @@
       <c r="O12" s="107"/>
       <c r="P12" s="110"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6399,7 +6471,7 @@
       <c r="O13" s="111"/>
       <c r="P13" s="110"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6426,7 +6498,7 @@
       <c r="O14" s="107"/>
       <c r="P14" s="110"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6453,7 +6525,7 @@
       <c r="O15" s="107"/>
       <c r="P15" s="109"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6480,7 +6552,7 @@
       <c r="O16" s="107"/>
       <c r="P16" s="110"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6507,7 +6579,7 @@
       <c r="O17" s="107"/>
       <c r="P17" s="110"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6534,7 +6606,7 @@
       <c r="O18" s="107"/>
       <c r="P18" s="109"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6561,7 +6633,7 @@
       <c r="O19" s="107"/>
       <c r="P19" s="110"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6588,7 +6660,7 @@
       <c r="O20" s="111"/>
       <c r="P20" s="109"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6615,7 +6687,7 @@
       <c r="O21" s="107"/>
       <c r="P21" s="109"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6642,7 +6714,7 @@
       <c r="O22" s="107"/>
       <c r="P22" s="109"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6669,7 +6741,7 @@
       <c r="O23" s="107"/>
       <c r="P23" s="109"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6696,7 +6768,7 @@
       <c r="O24" s="107"/>
       <c r="P24" s="109"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6723,7 +6795,7 @@
       <c r="O25" s="107"/>
       <c r="P25" s="109"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6750,7 +6822,7 @@
       <c r="O26" s="107"/>
       <c r="P26" s="109"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6777,7 +6849,7 @@
       <c r="O27" s="111"/>
       <c r="P27" s="110"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6804,7 +6876,7 @@
       <c r="O28" s="107"/>
       <c r="P28" s="109"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6831,7 +6903,7 @@
       <c r="O29" s="107"/>
       <c r="P29" s="110"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6858,7 +6930,7 @@
       <c r="O30" s="25"/>
       <c r="P30" s="25"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6885,7 +6957,7 @@
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6912,7 +6984,7 @@
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6939,7 +7011,7 @@
       <c r="O33" s="25"/>
       <c r="P33" s="25"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6966,7 +7038,7 @@
       <c r="O34" s="25"/>
       <c r="P34" s="25"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6993,7 +7065,7 @@
       <c r="O35" s="25"/>
       <c r="P35" s="25"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -7020,7 +7092,7 @@
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -7047,7 +7119,7 @@
       <c r="O37" s="25"/>
       <c r="P37" s="25"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -7074,7 +7146,7 @@
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -7101,7 +7173,7 @@
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -7128,7 +7200,7 @@
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -7155,7 +7227,7 @@
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -7182,7 +7254,7 @@
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -7209,7 +7281,7 @@
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -7236,7 +7308,7 @@
       <c r="O44" s="25"/>
       <c r="P44" s="25"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -7263,7 +7335,7 @@
       <c r="O45" s="25"/>
       <c r="P45" s="25"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -7290,7 +7362,7 @@
       <c r="O46" s="25"/>
       <c r="P46" s="25"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -7317,7 +7389,7 @@
       <c r="O47" s="25"/>
       <c r="P47" s="25"/>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -7344,7 +7416,7 @@
       <c r="O48" s="25"/>
       <c r="P48" s="25"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -7371,7 +7443,7 @@
       <c r="O49" s="25"/>
       <c r="P49" s="25"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -7398,7 +7470,7 @@
       <c r="O50" s="25"/>
       <c r="P50" s="25"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -7425,7 +7497,7 @@
       <c r="O51" s="25"/>
       <c r="P51" s="25"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -7452,7 +7524,7 @@
       <c r="O52" s="25"/>
       <c r="P52" s="25"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -7479,7 +7551,7 @@
       <c r="O53" s="25"/>
       <c r="P53" s="25"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -7506,7 +7578,7 @@
       <c r="O54" s="25"/>
       <c r="P54" s="25"/>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -7533,7 +7605,7 @@
       <c r="O55" s="25"/>
       <c r="P55" s="25"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -7560,7 +7632,7 @@
       <c r="O56" s="25"/>
       <c r="P56" s="25"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -7587,7 +7659,7 @@
       <c r="O57" s="25"/>
       <c r="P57" s="25"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -7614,7 +7686,7 @@
       <c r="O58" s="25"/>
       <c r="P58" s="25"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -7641,7 +7713,7 @@
       <c r="O59" s="25"/>
       <c r="P59" s="25"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -7668,7 +7740,7 @@
       <c r="O60" s="25"/>
       <c r="P60" s="25"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -7695,7 +7767,7 @@
       <c r="O61" s="25"/>
       <c r="P61" s="25"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -7722,7 +7794,7 @@
       <c r="O62" s="25"/>
       <c r="P62" s="25"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -7749,7 +7821,7 @@
       <c r="O63" s="25"/>
       <c r="P63" s="25"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -7776,7 +7848,7 @@
       <c r="O64" s="25"/>
       <c r="P64" s="25"/>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -7803,7 +7875,7 @@
       <c r="O65" s="25"/>
       <c r="P65" s="25"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -7830,7 +7902,7 @@
       <c r="O66" s="25"/>
       <c r="P66" s="25"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -7857,7 +7929,7 @@
       <c r="O67" s="25"/>
       <c r="P67" s="25"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -7884,7 +7956,7 @@
       <c r="O68" s="25"/>
       <c r="P68" s="25"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -7911,7 +7983,7 @@
       <c r="O69" s="25"/>
       <c r="P69" s="25"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" ref="A70:A81" si="1">A69+1</f>
         <v>67</v>
@@ -7938,7 +8010,7 @@
       <c r="O70" s="25"/>
       <c r="P70" s="25"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -7965,7 +8037,7 @@
       <c r="O71" s="25"/>
       <c r="P71" s="25"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -7992,7 +8064,7 @@
       <c r="O72" s="25"/>
       <c r="P72" s="25"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -8019,7 +8091,7 @@
       <c r="O73" s="25"/>
       <c r="P73" s="25"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -8046,7 +8118,7 @@
       <c r="O74" s="25"/>
       <c r="P74" s="25"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -8073,7 +8145,7 @@
       <c r="O75" s="25"/>
       <c r="P75" s="25"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -8100,7 +8172,7 @@
       <c r="O76" s="25"/>
       <c r="P76" s="25"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -8127,7 +8199,7 @@
       <c r="O77" s="25"/>
       <c r="P77" s="25"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -8154,7 +8226,7 @@
       <c r="O78" s="25"/>
       <c r="P78" s="25"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -8181,7 +8253,7 @@
       <c r="O79" s="25"/>
       <c r="P79" s="25"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -8208,7 +8280,7 @@
       <c r="O80" s="25"/>
       <c r="P80" s="25"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -8235,7 +8307,7 @@
       <c r="O81" s="25"/>
       <c r="P81" s="25"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E82" s="25"/>
       <c r="F82" s="25"/>
       <c r="G82" s="25"/>
@@ -8249,7 +8321,7 @@
       <c r="O82" s="25"/>
       <c r="P82" s="25"/>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E83" s="25"/>
       <c r="F83" s="25"/>
       <c r="G83" s="25"/>
@@ -8263,7 +8335,7 @@
       <c r="O83" s="25"/>
       <c r="P83" s="25"/>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E84" s="25"/>
       <c r="F84" s="25"/>
       <c r="G84" s="25"/>
@@ -8277,7 +8349,7 @@
       <c r="O84" s="25"/>
       <c r="P84" s="25"/>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E85" s="25"/>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
@@ -8291,7 +8363,7 @@
       <c r="O85" s="25"/>
       <c r="P85" s="25"/>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E86" s="25"/>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
@@ -8305,7 +8377,7 @@
       <c r="O86" s="25"/>
       <c r="P86" s="25"/>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E87" s="25"/>
       <c r="F87" s="25"/>
       <c r="G87" s="25"/>
@@ -8319,7 +8391,7 @@
       <c r="O87" s="25"/>
       <c r="P87" s="25"/>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E88" s="25"/>
       <c r="F88" s="25"/>
       <c r="G88" s="25"/>
@@ -8333,7 +8405,7 @@
       <c r="O88" s="25"/>
       <c r="P88" s="25"/>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E89" s="25"/>
       <c r="F89" s="25"/>
       <c r="G89" s="25"/>
@@ -8347,7 +8419,7 @@
       <c r="O89" s="25"/>
       <c r="P89" s="25"/>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E90" s="25"/>
       <c r="F90" s="25"/>
       <c r="G90" s="25"/>
@@ -8361,7 +8433,7 @@
       <c r="O90" s="25"/>
       <c r="P90" s="25"/>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E91" s="25"/>
       <c r="F91" s="25"/>
       <c r="G91" s="25"/>
@@ -8375,7 +8447,7 @@
       <c r="O91" s="25"/>
       <c r="P91" s="25"/>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E92" s="25"/>
       <c r="F92" s="25"/>
       <c r="G92" s="25"/>
@@ -8389,7 +8461,7 @@
       <c r="O92" s="25"/>
       <c r="P92" s="25"/>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E93" s="25"/>
       <c r="F93" s="25"/>
       <c r="G93" s="25"/>
@@ -8403,7 +8475,7 @@
       <c r="O93" s="25"/>
       <c r="P93" s="25"/>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E94" s="25"/>
       <c r="F94" s="25"/>
       <c r="G94" s="25"/>
@@ -8417,7 +8489,7 @@
       <c r="O94" s="25"/>
       <c r="P94" s="25"/>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E95" s="25"/>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -8431,7 +8503,7 @@
       <c r="O95" s="25"/>
       <c r="P95" s="25"/>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E96" s="25"/>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -8445,7 +8517,7 @@
       <c r="O96" s="25"/>
       <c r="P96" s="25"/>
     </row>
-    <row r="97" spans="5:16">
+    <row r="97" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E97" s="25"/>
       <c r="F97" s="25"/>
       <c r="G97" s="25"/>
@@ -8459,7 +8531,7 @@
       <c r="O97" s="25"/>
       <c r="P97" s="25"/>
     </row>
-    <row r="98" spans="5:16">
+    <row r="98" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E98" s="25"/>
       <c r="F98" s="25"/>
       <c r="G98" s="25"/>
@@ -8480,23 +8552,23 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AR283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="7" max="19" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="26" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="19" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="26" width="9.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="27.75" customHeight="1">
+    <row r="1" spans="1:44" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>337</v>
       </c>
@@ -8541,7 +8613,7 @@
       <c r="AQ1" s="25"/>
       <c r="AR1" s="25"/>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="123" t="s">
         <v>330</v>
       </c>
@@ -8595,7 +8667,7 @@
       <c r="AQ2" s="25"/>
       <c r="AR2" s="121"/>
     </row>
-    <row r="3" spans="1:44" ht="15">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="125" t="s">
         <v>328</v>
       </c>
@@ -8649,7 +8721,7 @@
       <c r="AQ3" s="25"/>
       <c r="AR3" s="25"/>
     </row>
-    <row r="4" spans="1:44" ht="15">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="59">
         <v>1</v>
       </c>
@@ -8684,7 +8756,7 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:44" ht="15">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="59">
         <v>1</v>
       </c>
@@ -8720,7 +8792,7 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:44" ht="15">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="59">
         <v>1</v>
       </c>
@@ -8756,7 +8828,7 @@
       <c r="Y6" s="15"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:44" ht="15">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="59">
         <v>1</v>
       </c>
@@ -8792,7 +8864,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:44" ht="15">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
         <v>1</v>
       </c>
@@ -8828,7 +8900,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:44" ht="15">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="59">
         <v>2</v>
       </c>
@@ -8863,7 +8935,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:44" ht="15">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="59">
         <v>2</v>
       </c>
@@ -8899,7 +8971,7 @@
       <c r="Y10" s="25"/>
       <c r="Z10" s="25"/>
     </row>
-    <row r="11" spans="1:44" ht="15">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="59">
         <v>2</v>
       </c>
@@ -8935,7 +9007,7 @@
       <c r="Y11" s="25"/>
       <c r="Z11" s="25"/>
     </row>
-    <row r="12" spans="1:44" ht="15">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="59">
         <v>2</v>
       </c>
@@ -8971,7 +9043,7 @@
       <c r="Y12" s="121"/>
       <c r="Z12" s="121"/>
     </row>
-    <row r="13" spans="1:44" ht="15">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="59">
         <v>2</v>
       </c>
@@ -9007,7 +9079,7 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:44" ht="15">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="59">
         <v>3</v>
       </c>
@@ -9042,7 +9114,7 @@
       <c r="Y14" s="15"/>
       <c r="Z14" s="15"/>
     </row>
-    <row r="15" spans="1:44" ht="15">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="59">
         <v>3</v>
       </c>
@@ -9078,7 +9150,7 @@
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="1:44" ht="15">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="59">
         <v>3</v>
       </c>
@@ -9114,7 +9186,7 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
     </row>
-    <row r="17" spans="1:26" ht="15">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="59">
         <v>3</v>
       </c>
@@ -9150,7 +9222,7 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
     </row>
-    <row r="18" spans="1:26" ht="15">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="59">
         <v>3</v>
       </c>
@@ -9165,7 +9237,7 @@
         <v>13119</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="15">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="59">
         <v>4</v>
       </c>
@@ -9179,7 +9251,7 @@
         <v>8123</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="59">
         <v>4</v>
       </c>
@@ -9194,7 +9266,7 @@
         <v>9137</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="59">
         <v>4</v>
       </c>
@@ -9209,7 +9281,7 @@
         <v>10358</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="59">
         <v>4</v>
       </c>
@@ -9224,7 +9296,7 @@
         <v>12378</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="59">
         <v>4</v>
       </c>
@@ -9239,7 +9311,7 @@
         <v>14432</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="59">
         <v>5</v>
       </c>
@@ -9253,7 +9325,7 @@
         <v>8008</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="59">
         <v>5</v>
       </c>
@@ -9289,7 +9361,7 @@
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
     </row>
-    <row r="26" spans="1:26" ht="15">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="59">
         <v>5</v>
       </c>
@@ -9325,7 +9397,7 @@
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
     </row>
-    <row r="27" spans="1:26" ht="15">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="59">
         <v>5</v>
       </c>
@@ -9361,7 +9433,7 @@
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
     </row>
-    <row r="28" spans="1:26" ht="15">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="59">
         <v>5</v>
       </c>
@@ -9397,7 +9469,7 @@
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
     </row>
-    <row r="29" spans="1:26" ht="15">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="59">
         <v>6</v>
       </c>
@@ -9432,7 +9504,7 @@
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
     </row>
-    <row r="30" spans="1:26" ht="15">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="59">
         <v>6</v>
       </c>
@@ -9468,7 +9540,7 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
     </row>
-    <row r="31" spans="1:26" ht="15">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="59">
         <v>6</v>
       </c>
@@ -9504,7 +9576,7 @@
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
     </row>
-    <row r="32" spans="1:26" ht="15">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="59">
         <v>6</v>
       </c>
@@ -9540,7 +9612,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
     </row>
-    <row r="33" spans="1:26" ht="15">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="59">
         <v>6</v>
       </c>
@@ -9576,7 +9648,7 @@
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
     </row>
-    <row r="34" spans="1:26" ht="15">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="59">
         <v>7</v>
       </c>
@@ -9611,7 +9683,7 @@
       <c r="Y34" s="11"/>
       <c r="Z34" s="11"/>
     </row>
-    <row r="35" spans="1:26" ht="15">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="59">
         <v>7</v>
       </c>
@@ -9647,7 +9719,7 @@
       <c r="Y35" s="11"/>
       <c r="Z35" s="11"/>
     </row>
-    <row r="36" spans="1:26" ht="15">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="59">
         <v>7</v>
       </c>
@@ -9683,7 +9755,7 @@
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
     </row>
-    <row r="37" spans="1:26" ht="15">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="59">
         <v>7</v>
       </c>
@@ -9719,7 +9791,7 @@
       <c r="Y37" s="11"/>
       <c r="Z37" s="11"/>
     </row>
-    <row r="38" spans="1:26" ht="15">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="59">
         <v>7</v>
       </c>
@@ -9755,7 +9827,7 @@
       <c r="Y38" s="11"/>
       <c r="Z38" s="11"/>
     </row>
-    <row r="39" spans="1:26" ht="15">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="59">
         <v>8</v>
       </c>
@@ -9790,7 +9862,7 @@
       <c r="Y39" s="11"/>
       <c r="Z39" s="11"/>
     </row>
-    <row r="40" spans="1:26" ht="15">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="59">
         <v>8</v>
       </c>
@@ -9826,7 +9898,7 @@
       <c r="Y40" s="11"/>
       <c r="Z40" s="11"/>
     </row>
-    <row r="41" spans="1:26" ht="15">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="59">
         <v>8</v>
       </c>
@@ -9862,7 +9934,7 @@
       <c r="Y41" s="11"/>
       <c r="Z41" s="11"/>
     </row>
-    <row r="42" spans="1:26" ht="15">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="59">
         <v>8</v>
       </c>
@@ -9877,7 +9949,7 @@
         <v>16378</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="15">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="59">
         <v>8</v>
       </c>
@@ -9892,7 +9964,7 @@
         <v>18680</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="15">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="59">
         <v>9</v>
       </c>
@@ -9906,7 +9978,7 @@
         <v>14546</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="15">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="59">
         <v>9</v>
       </c>
@@ -9921,7 +9993,7 @@
         <v>16294</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="15">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="59">
         <v>9</v>
       </c>
@@ -9936,7 +10008,7 @@
         <v>18265</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="15">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="59">
         <v>9</v>
       </c>
@@ -9951,7 +10023,7 @@
         <v>20574</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="15">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="59">
         <v>9</v>
       </c>
@@ -9966,7 +10038,7 @@
         <v>22727</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="59">
         <v>10</v>
       </c>
@@ -9980,7 +10052,7 @@
         <v>11175</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="59">
         <v>10</v>
       </c>
@@ -9995,7 +10067,7 @@
         <v>12321</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="59">
         <v>10</v>
       </c>
@@ -10010,7 +10082,7 @@
         <v>13753</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="59">
         <v>10</v>
       </c>
@@ -10025,7 +10097,7 @@
         <v>15506</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="59">
         <v>10</v>
       </c>
@@ -10040,7 +10112,7 @@
         <v>17961</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="59">
         <v>11</v>
       </c>
@@ -10054,7 +10126,7 @@
         <v>9438</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="59">
         <v>11</v>
       </c>
@@ -10069,7 +10141,7 @@
         <v>10745</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="59">
         <v>11</v>
       </c>
@@ -10084,7 +10156,7 @@
         <v>12192</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="59">
         <v>11</v>
       </c>
@@ -10099,7 +10171,7 @@
         <v>14265</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="59">
         <v>11</v>
       </c>
@@ -10114,7 +10186,7 @@
         <v>16305</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="59">
         <v>12</v>
       </c>
@@ -10128,7 +10200,7 @@
         <v>7705</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="59">
         <v>12</v>
       </c>
@@ -10143,7 +10215,7 @@
         <v>8668</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="59">
         <v>12</v>
       </c>
@@ -10158,7 +10230,7 @@
         <v>9810</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="59">
         <v>12</v>
       </c>
@@ -10173,7 +10245,7 @@
         <v>11477</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="59">
         <v>12</v>
       </c>
@@ -10188,7 +10260,7 @@
         <v>13231</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="59">
         <v>13</v>
       </c>
@@ -10202,7 +10274,7 @@
         <v>8023</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="59">
         <v>13</v>
       </c>
@@ -10217,7 +10289,7 @@
         <v>8786</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="59">
         <v>13</v>
       </c>
@@ -10232,7 +10304,7 @@
         <v>9803</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="59">
         <v>13</v>
       </c>
@@ -10247,7 +10319,7 @@
         <v>11486</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="59">
         <v>13</v>
       </c>
@@ -10262,7 +10334,7 @@
         <v>13153</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="59">
         <v>14</v>
       </c>
@@ -10276,7 +10348,7 @@
         <v>8617</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="59">
         <v>14</v>
       </c>
@@ -10291,7 +10363,7 @@
         <v>9524</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="59">
         <v>14</v>
       </c>
@@ -10306,7 +10378,7 @@
         <v>10505</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="59">
         <v>14</v>
       </c>
@@ -10321,7 +10393,7 @@
         <v>12294</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="59">
         <v>14</v>
       </c>
@@ -10336,7 +10408,7 @@
         <v>13821</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="59">
         <v>15</v>
       </c>
@@ -10350,7 +10422,7 @@
         <v>13628</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="59">
         <v>15</v>
       </c>
@@ -10365,7 +10437,7 @@
         <v>14770</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="59">
         <v>15</v>
       </c>
@@ -10380,7 +10452,7 @@
         <v>16016</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="59">
         <v>15</v>
       </c>
@@ -10395,7 +10467,7 @@
         <v>17699</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="59">
         <v>15</v>
       </c>
@@ -10410,7 +10482,7 @@
         <v>19733</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="59">
         <v>16</v>
       </c>
@@ -10424,7 +10496,7 @@
         <v>9221</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="59">
         <v>16</v>
       </c>
@@ -10439,7 +10511,7 @@
         <v>10243</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="59">
         <v>16</v>
       </c>
@@ -10454,7 +10526,7 @@
         <v>11570</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="59">
         <v>16</v>
       </c>
@@ -10469,7 +10541,7 @@
         <v>12591</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="59">
         <v>16</v>
       </c>
@@ -10484,7 +10556,7 @@
         <v>14368</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="59">
         <v>17</v>
       </c>
@@ -10498,7 +10570,7 @@
         <v>7710</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="59">
         <v>17</v>
       </c>
@@ -10513,7 +10585,7 @@
         <v>8386</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="59">
         <v>17</v>
       </c>
@@ -10528,7 +10600,7 @@
         <v>9350</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="59">
         <v>17</v>
       </c>
@@ -10543,7 +10615,7 @@
         <v>11098</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="59">
         <v>17</v>
       </c>
@@ -10558,7 +10630,7 @@
         <v>12633</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="59">
         <v>18</v>
       </c>
@@ -10572,7 +10644,7 @@
         <v>8871</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="59">
         <v>18</v>
       </c>
@@ -10587,7 +10659,7 @@
         <v>9266</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="59">
         <v>18</v>
       </c>
@@ -10602,7 +10674,7 @@
         <v>10070</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="59">
         <v>18</v>
       </c>
@@ -10617,7 +10689,7 @@
         <v>11496</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="59">
         <v>18</v>
       </c>
@@ -10632,7 +10704,7 @@
         <v>13250</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="59">
         <v>19</v>
       </c>
@@ -10646,7 +10718,7 @@
         <v>7492</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="59">
         <v>19</v>
       </c>
@@ -10661,7 +10733,7 @@
         <v>8272</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="59">
         <v>19</v>
       </c>
@@ -10676,7 +10748,7 @@
         <v>9268</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="59">
         <v>19</v>
       </c>
@@ -10691,7 +10763,7 @@
         <v>10763</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="59">
         <v>19</v>
       </c>
@@ -10706,7 +10778,7 @@
         <v>12858</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="59">
         <v>20</v>
       </c>
@@ -10720,7 +10792,7 @@
         <v>7377</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="59">
         <v>20</v>
       </c>
@@ -10735,7 +10807,7 @@
         <v>8087</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="59">
         <v>20</v>
       </c>
@@ -10750,7 +10822,7 @@
         <v>8921</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="59">
         <v>20</v>
       </c>
@@ -10765,7 +10837,7 @@
         <v>10012</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="59">
         <v>20</v>
       </c>
@@ -10780,1081 +10852,1081 @@
         <v>10969</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="13"/>
       <c r="D111" s="15"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="15"/>
       <c r="D113" s="15"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="15"/>
       <c r="D114" s="15"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="15"/>
       <c r="D126" s="15"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="15"/>
       <c r="D127" s="15"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="15"/>
       <c r="D128" s="15"/>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="15"/>
       <c r="D129" s="15"/>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
       <c r="D131" s="11"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="13"/>
       <c r="D135" s="13"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="13"/>
       <c r="D136" s="13"/>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="13"/>
       <c r="D137" s="13"/>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="15"/>
       <c r="D140" s="15"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="15"/>
       <c r="D141" s="15"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="15"/>
       <c r="D142" s="15"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="15"/>
       <c r="D143" s="15"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="13"/>
       <c r="D149" s="13"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="13"/>
       <c r="D150" s="13"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="13"/>
       <c r="D151" s="13"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="15"/>
       <c r="D154" s="15"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="15"/>
       <c r="D155" s="15"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="15"/>
       <c r="D157" s="15"/>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="13"/>
       <c r="D163" s="13"/>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="13"/>
       <c r="D164" s="13"/>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="13"/>
       <c r="D165" s="13"/>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="13"/>
       <c r="D166" s="13"/>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="13"/>
       <c r="D167" s="13"/>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="15"/>
       <c r="D168" s="15"/>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="15"/>
       <c r="D169" s="15"/>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="15"/>
       <c r="D170" s="15"/>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="15"/>
       <c r="D171" s="15"/>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="13"/>
       <c r="D177" s="13"/>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="13"/>
       <c r="D179" s="13"/>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="13"/>
       <c r="D180" s="13"/>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="13"/>
       <c r="D181" s="13"/>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="15"/>
       <c r="D182" s="15"/>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="15"/>
       <c r="D183" s="15"/>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="15"/>
       <c r="D184" s="15"/>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="15"/>
       <c r="D185" s="15"/>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="13"/>
       <c r="D191" s="13"/>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="13"/>
       <c r="D193" s="13"/>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="13"/>
       <c r="D194" s="13"/>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="13"/>
       <c r="D195" s="13"/>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="15"/>
       <c r="D196" s="15"/>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="15"/>
       <c r="D197" s="15"/>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="15"/>
       <c r="D198" s="18"/>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="15"/>
       <c r="D199" s="18"/>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
       <c r="D203" s="11"/>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="13"/>
       <c r="D205" s="13"/>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="13"/>
       <c r="D206" s="13"/>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="13"/>
       <c r="D207" s="13"/>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="13"/>
       <c r="D208" s="13"/>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="13"/>
       <c r="D209" s="13"/>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="15"/>
       <c r="D210" s="15"/>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="15"/>
       <c r="D211" s="15"/>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="15"/>
       <c r="D212" s="15"/>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="15"/>
       <c r="D213" s="15"/>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
       <c r="D214" s="11"/>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
       <c r="D215" s="11"/>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
       <c r="D216" s="11"/>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
       <c r="D217" s="11"/>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
       <c r="D218" s="11"/>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="13"/>
       <c r="D219" s="13"/>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="13"/>
       <c r="D220" s="13"/>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="13"/>
       <c r="D221" s="13"/>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="13"/>
       <c r="D222" s="13"/>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="13"/>
       <c r="D223" s="15"/>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="15"/>
       <c r="D224" s="15"/>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="15"/>
       <c r="D225" s="15"/>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="15"/>
       <c r="D226" s="15"/>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="11"/>
       <c r="B227" s="11"/>
       <c r="C227" s="15"/>
       <c r="D227" s="15"/>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="11"/>
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
       <c r="D228" s="11"/>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="11"/>
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
       <c r="D229" s="11"/>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="11"/>
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
       <c r="D230" s="11"/>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="11"/>
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
       <c r="D231" s="11"/>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="11"/>
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
       <c r="D232" s="11"/>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="11"/>
       <c r="B233" s="11"/>
       <c r="C233" s="13"/>
       <c r="D233" s="13"/>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="11"/>
       <c r="B234" s="11"/>
       <c r="C234" s="13"/>
       <c r="D234" s="13"/>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="11"/>
       <c r="B235" s="11"/>
       <c r="C235" s="13"/>
       <c r="D235" s="13"/>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="11"/>
       <c r="B236" s="11"/>
       <c r="C236" s="13"/>
       <c r="D236" s="13"/>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="11"/>
       <c r="B237" s="11"/>
       <c r="C237" s="13"/>
       <c r="D237" s="13"/>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="11"/>
       <c r="B238" s="11"/>
       <c r="C238" s="15"/>
       <c r="D238" s="15"/>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="11"/>
       <c r="B239" s="11"/>
       <c r="C239" s="15"/>
       <c r="D239" s="15"/>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="11"/>
       <c r="B240" s="11"/>
       <c r="C240" s="15"/>
       <c r="D240" s="15"/>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="11"/>
       <c r="B241" s="11"/>
       <c r="C241" s="15"/>
       <c r="D241" s="15"/>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="11"/>
       <c r="B242" s="11"/>
       <c r="C242" s="11"/>
       <c r="D242" s="11"/>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="11"/>
       <c r="B243" s="11"/>
       <c r="C243" s="11"/>
       <c r="D243" s="11"/>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="11"/>
       <c r="B244" s="11"/>
       <c r="C244" s="11"/>
       <c r="D244" s="11"/>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="11"/>
       <c r="B245" s="11"/>
       <c r="C245" s="11"/>
       <c r="D245" s="11"/>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="11"/>
       <c r="B246" s="11"/>
       <c r="C246" s="11"/>
       <c r="D246" s="11"/>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="11"/>
       <c r="B247" s="11"/>
       <c r="C247" s="13"/>
       <c r="D247" s="13"/>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="11"/>
       <c r="B248" s="11"/>
       <c r="C248" s="13"/>
       <c r="D248" s="13"/>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="11"/>
       <c r="B249" s="11"/>
       <c r="C249" s="13"/>
       <c r="D249" s="13"/>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="11"/>
       <c r="B250" s="11"/>
       <c r="C250" s="13"/>
       <c r="D250" s="13"/>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="11"/>
       <c r="B251" s="11"/>
       <c r="C251" s="13"/>
       <c r="D251" s="13"/>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="11"/>
       <c r="B252" s="11"/>
       <c r="C252" s="15"/>
       <c r="D252" s="15"/>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="11"/>
       <c r="B253" s="11"/>
       <c r="C253" s="15"/>
       <c r="D253" s="15"/>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="11"/>
       <c r="B254" s="11"/>
       <c r="C254" s="15"/>
       <c r="D254" s="15"/>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="11"/>
       <c r="B255" s="11"/>
       <c r="C255" s="15"/>
       <c r="D255" s="15"/>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="11"/>
       <c r="B256" s="11"/>
       <c r="C256" s="11"/>
       <c r="D256" s="11"/>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="11"/>
       <c r="B257" s="11"/>
       <c r="C257" s="11"/>
       <c r="D257" s="11"/>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="11"/>
       <c r="B258" s="11"/>
       <c r="C258" s="11"/>
       <c r="D258" s="11"/>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="11"/>
       <c r="B259" s="11"/>
       <c r="C259" s="11"/>
       <c r="D259" s="11"/>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="11"/>
       <c r="B260" s="11"/>
       <c r="C260" s="11"/>
       <c r="D260" s="11"/>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="11"/>
       <c r="B261" s="11"/>
       <c r="C261" s="13"/>
       <c r="D261" s="13"/>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="11"/>
       <c r="B262" s="11"/>
       <c r="C262" s="13"/>
       <c r="D262" s="13"/>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="11"/>
       <c r="B263" s="11"/>
       <c r="C263" s="13"/>
       <c r="D263" s="13"/>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="11"/>
       <c r="B264" s="11"/>
       <c r="C264" s="13"/>
       <c r="D264" s="13"/>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="11"/>
       <c r="B265" s="11"/>
       <c r="C265" s="13"/>
       <c r="D265" s="13"/>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="11"/>
       <c r="B266" s="11"/>
       <c r="C266" s="15"/>
       <c r="D266" s="15"/>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="11"/>
       <c r="B267" s="11"/>
       <c r="C267" s="15"/>
       <c r="D267" s="15"/>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="11"/>
       <c r="B268" s="11"/>
       <c r="C268" s="15"/>
       <c r="D268" s="15"/>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="11"/>
       <c r="B269" s="11"/>
       <c r="C269" s="15"/>
       <c r="D269" s="15"/>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="11"/>
       <c r="B270" s="11"/>
       <c r="C270" s="11"/>
       <c r="D270" s="11"/>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="11"/>
       <c r="B271" s="11"/>
       <c r="C271" s="11"/>
       <c r="D271" s="11"/>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="11"/>
       <c r="B272" s="11"/>
       <c r="C272" s="11"/>
       <c r="D272" s="11"/>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="11"/>
       <c r="B273" s="11"/>
       <c r="C273" s="11"/>
       <c r="D273" s="11"/>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="11"/>
       <c r="B274" s="11"/>
       <c r="C274" s="11"/>
       <c r="D274" s="11"/>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="11"/>
       <c r="B275" s="11"/>
       <c r="C275" s="13"/>
       <c r="D275" s="13"/>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="11"/>
       <c r="B276" s="11"/>
       <c r="C276" s="13"/>
       <c r="D276" s="13"/>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="11"/>
       <c r="B277" s="11"/>
       <c r="C277" s="13"/>
       <c r="D277" s="13"/>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="11"/>
       <c r="B278" s="11"/>
       <c r="C278" s="13"/>
       <c r="D278" s="13"/>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="11"/>
       <c r="B279" s="11"/>
       <c r="C279" s="13"/>
       <c r="D279" s="13"/>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="11"/>
       <c r="B280" s="11"/>
       <c r="C280" s="15"/>
       <c r="D280" s="15"/>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="11"/>
       <c r="B281" s="11"/>
       <c r="C281" s="15"/>
       <c r="D281" s="15"/>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="11"/>
       <c r="B282" s="11"/>
       <c r="C282" s="15"/>
       <c r="D282" s="15"/>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="11"/>
       <c r="B283" s="11"/>
       <c r="C283" s="15"/>
@@ -11868,26 +11940,26 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:P130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="29.25" customHeight="1">
+    <row r="1" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="130"/>
       <c r="B2" s="130"/>
       <c r="C2" s="130" t="s">
@@ -11907,7 +11979,7 @@
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="131" t="s">
         <v>124</v>
       </c>
@@ -11932,7 +12004,7 @@
       <c r="O3" s="127"/>
       <c r="P3" s="127"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
         <v>1</v>
       </c>
@@ -11957,7 +12029,7 @@
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="41">
         <v>1</v>
       </c>
@@ -11982,7 +12054,7 @@
       <c r="O5" s="15"/>
       <c r="P5" s="126"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="41">
         <v>1</v>
       </c>
@@ -12007,7 +12079,7 @@
       <c r="O6" s="15"/>
       <c r="P6" s="126"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="41">
         <v>1</v>
       </c>
@@ -12032,7 +12104,7 @@
       <c r="O7" s="15"/>
       <c r="P7" s="126"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
         <v>1</v>
       </c>
@@ -12057,7 +12129,7 @@
       <c r="O8" s="15"/>
       <c r="P8" s="126"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
         <v>1</v>
       </c>
@@ -12082,7 +12154,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="126"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
         <v>1</v>
       </c>
@@ -12107,7 +12179,7 @@
       <c r="O10" s="15"/>
       <c r="P10" s="126"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>1</v>
       </c>
@@ -12132,7 +12204,7 @@
       <c r="O11" s="15"/>
       <c r="P11" s="126"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>1</v>
       </c>
@@ -12157,7 +12229,7 @@
       <c r="O12" s="15"/>
       <c r="P12" s="126"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>1</v>
       </c>
@@ -12182,7 +12254,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="126"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>1</v>
       </c>
@@ -12207,7 +12279,7 @@
       <c r="O14" s="15"/>
       <c r="P14" s="126"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>1</v>
       </c>
@@ -12232,7 +12304,7 @@
       <c r="O15" s="15"/>
       <c r="P15" s="126"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>1</v>
       </c>
@@ -12257,7 +12329,7 @@
       <c r="O16" s="15"/>
       <c r="P16" s="126"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>1</v>
       </c>
@@ -12282,7 +12354,7 @@
       <c r="O17" s="15"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>1</v>
       </c>
@@ -12307,7 +12379,7 @@
       <c r="O18" s="15"/>
       <c r="P18" s="126"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>2</v>
       </c>
@@ -12332,7 +12404,7 @@
       <c r="O19" s="15"/>
       <c r="P19" s="126"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>2</v>
       </c>
@@ -12357,7 +12429,7 @@
       <c r="O20" s="126"/>
       <c r="P20" s="126"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>2</v>
       </c>
@@ -12382,7 +12454,7 @@
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>2</v>
       </c>
@@ -12407,7 +12479,7 @@
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <v>2</v>
       </c>
@@ -12432,7 +12504,7 @@
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>2</v>
       </c>
@@ -12457,7 +12529,7 @@
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>2</v>
       </c>
@@ -12482,7 +12554,7 @@
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>2</v>
       </c>
@@ -12507,7 +12579,7 @@
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>2</v>
       </c>
@@ -12532,7 +12604,7 @@
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>2</v>
       </c>
@@ -12557,7 +12629,7 @@
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>2</v>
       </c>
@@ -12582,7 +12654,7 @@
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>2</v>
       </c>
@@ -12607,7 +12679,7 @@
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>2</v>
       </c>
@@ -12632,7 +12704,7 @@
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>2</v>
       </c>
@@ -12657,7 +12729,7 @@
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>2</v>
       </c>
@@ -12671,7 +12743,7 @@
         <v>42976.3</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
         <v>3</v>
       </c>
@@ -12685,7 +12757,7 @@
         <v>16683</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>3</v>
       </c>
@@ -12699,7 +12771,7 @@
         <v>18645</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>3</v>
       </c>
@@ -12713,7 +12785,7 @@
         <v>20668</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>3</v>
       </c>
@@ -12727,7 +12799,7 @@
         <v>23623</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>3</v>
       </c>
@@ -12741,7 +12813,7 @@
         <v>26675</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>3</v>
       </c>
@@ -12755,7 +12827,7 @@
         <v>28838</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>3</v>
       </c>
@@ -12769,7 +12841,7 @@
         <v>31838</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>3</v>
       </c>
@@ -12783,7 +12855,7 @@
         <v>36230</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>3</v>
       </c>
@@ -12797,7 +12869,7 @@
         <v>40188</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>3</v>
       </c>
@@ -12811,7 +12883,7 @@
         <v>44878.3</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>3</v>
       </c>
@@ -12825,7 +12897,7 @@
         <v>48841.4</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>3</v>
       </c>
@@ -12839,7 +12911,7 @@
         <v>52961.9</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>3</v>
       </c>
@@ -12853,7 +12925,7 @@
         <v>57691.7</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>3</v>
       </c>
@@ -12867,7 +12939,7 @@
         <v>62595.7</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>3</v>
       </c>
@@ -12881,7 +12953,7 @@
         <v>68033.600000000006</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="41">
         <v>4</v>
       </c>
@@ -12895,7 +12967,7 @@
         <v>9221</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>4</v>
       </c>
@@ -12909,7 +12981,7 @@
         <v>10243</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>4</v>
       </c>
@@ -12923,7 +12995,7 @@
         <v>11570</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>4</v>
       </c>
@@ -12937,7 +13009,7 @@
         <v>12591</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>4</v>
       </c>
@@ -12951,7 +13023,7 @@
         <v>14368</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>4</v>
       </c>
@@ -12965,7 +13037,7 @@
         <v>15749</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>4</v>
       </c>
@@ -12979,7 +13051,7 @@
         <v>17532</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>4</v>
       </c>
@@ -12993,7 +13065,7 @@
         <v>20250</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>4</v>
       </c>
@@ -13007,7 +13079,7 @@
         <v>22968</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>4</v>
       </c>
@@ -13021,7 +13093,7 @@
         <v>23058.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>4</v>
       </c>
@@ -13035,7 +13107,7 @@
         <v>25147.200000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>4</v>
       </c>
@@ -13049,7 +13121,7 @@
         <v>27238.799999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>4</v>
       </c>
@@ -13063,7 +13135,7 @@
         <v>29610</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="41">
         <v>4</v>
       </c>
@@ -13077,7 +13149,7 @@
         <v>32193.200000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>4</v>
       </c>
@@ -13091,271 +13163,271 @@
         <v>34889.300000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="10"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="16"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="10"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="10"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="10"/>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="10"/>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="10"/>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="10"/>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="10"/>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="10"/>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="10"/>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="10"/>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="10"/>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="10"/>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="10"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="16"/>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="10"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="10"/>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="10"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="10"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="10"/>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="10"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="10"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="10"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="10"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="10"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="10"/>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="10"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="16"/>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="10"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="10"/>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="10"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="10"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="10"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="10"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="10"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="10"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="10"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="10"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="10"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="10"/>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="10"/>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="16"/>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="10"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="10"/>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="10"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="10"/>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="10"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="10"/>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="10"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="10"/>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="10"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="10"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="10"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="10"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="10"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="16"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="10"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
       <c r="B123" s="10"/>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
       <c r="B124" s="10"/>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
       <c r="B125" s="10"/>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
       <c r="B126" s="10"/>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="11"/>
       <c r="B127" s="10"/>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="11"/>
       <c r="B128" s="10"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
       <c r="B129" s="10"/>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
     </row>
@@ -13366,26 +13438,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" customWidth="1"/>
+    <col min="4" max="5" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="139"/>
       <c r="B2" s="139" t="s">
         <v>39</v>
@@ -13403,7 +13475,7 @@
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="137"/>
       <c r="B3" s="125" t="s">
         <v>41</v>
@@ -13421,7 +13493,7 @@
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
@@ -13441,7 +13513,7 @@
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>5</v>
       </c>
@@ -13461,7 +13533,7 @@
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
@@ -13481,7 +13553,7 @@
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>7</v>
       </c>
@@ -13501,7 +13573,7 @@
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>8</v>
       </c>
@@ -13521,7 +13593,7 @@
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
     </row>
-    <row r="9" spans="1:8" ht="15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>9</v>
       </c>
@@ -13541,7 +13613,7 @@
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>10</v>
       </c>
@@ -13561,7 +13633,7 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8" ht="15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>11</v>
       </c>
@@ -13581,7 +13653,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="1:8" ht="15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>12</v>
       </c>
@@ -13601,7 +13673,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="1:8" ht="15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>13</v>
       </c>
@@ -13621,7 +13693,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
     </row>
-    <row r="14" spans="1:8" ht="15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>14</v>
       </c>
@@ -13641,7 +13713,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:8" ht="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>15</v>
       </c>
@@ -13661,7 +13733,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
     </row>
-    <row r="16" spans="1:8" ht="15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>16</v>
       </c>
@@ -13681,7 +13753,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>17</v>
       </c>
@@ -13701,7 +13773,7 @@
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>18</v>
       </c>
@@ -13721,7 +13793,7 @@
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>19</v>
       </c>
@@ -13741,7 +13813,7 @@
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>20</v>
       </c>
@@ -13761,7 +13833,7 @@
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>21</v>
       </c>
@@ -13781,7 +13853,7 @@
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>22</v>
       </c>
@@ -13801,7 +13873,7 @@
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" spans="1:8" ht="15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>23</v>
       </c>
@@ -13821,7 +13893,7 @@
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
     </row>
-    <row r="24" spans="1:8" ht="15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>24</v>
       </c>
@@ -13841,7 +13913,7 @@
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
     </row>
-    <row r="25" spans="1:8" ht="15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>25</v>
       </c>
@@ -13861,7 +13933,7 @@
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
     </row>
-    <row r="26" spans="1:8" ht="15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>26</v>
       </c>
@@ -13881,7 +13953,7 @@
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
     </row>
-    <row r="27" spans="1:8" ht="15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>27</v>
       </c>
@@ -13901,7 +13973,7 @@
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
     </row>
-    <row r="28" spans="1:8" ht="15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>28</v>
       </c>
@@ -13921,7 +13993,7 @@
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="1:8" ht="15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>29</v>
       </c>
@@ -13941,7 +14013,7 @@
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
     </row>
-    <row r="30" spans="1:8" ht="15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>30</v>
       </c>
@@ -13961,7 +14033,7 @@
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
     </row>
-    <row r="31" spans="1:8" ht="15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>31</v>
       </c>
@@ -13981,7 +14053,7 @@
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
     </row>
-    <row r="32" spans="1:8" ht="15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>32</v>
       </c>
@@ -14001,7 +14073,7 @@
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
     </row>
-    <row r="33" spans="1:8" ht="15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>33</v>
       </c>
@@ -14021,7 +14093,7 @@
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
     </row>
-    <row r="34" spans="1:8" ht="15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>34</v>
       </c>
@@ -14041,7 +14113,7 @@
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -14055,28 +14127,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="34.875" customWidth="1"/>
+    <col min="1" max="1" width="4.36328125" customWidth="1"/>
+    <col min="2" max="2" width="34.90625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" customWidth="1"/>
+    <col min="5" max="5" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
+    <row r="1" spans="1:7" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="139"/>
       <c r="B2" s="143"/>
       <c r="C2" s="143" t="s">
@@ -14091,8 +14163,10 @@
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
     </row>
-    <row r="3" spans="1:7" ht="15">
-      <c r="A3" s="137"/>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="144" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" s="141"/>
       <c r="C3" s="142" t="s">
         <v>41</v>
@@ -14106,7 +14180,7 @@
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>1</v>
       </c>
@@ -14125,7 +14199,7 @@
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <f>A4+1</f>
         <v>2</v>
@@ -14145,7 +14219,7 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <f t="shared" ref="A6:A42" si="0">A5+1</f>
         <v>3</v>
@@ -14165,7 +14239,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -14185,7 +14259,7 @@
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -14205,7 +14279,7 @@
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -14225,7 +14299,7 @@
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -14245,7 +14319,7 @@
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
     </row>
-    <row r="11" spans="1:7" ht="15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -14265,7 +14339,7 @@
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -14285,7 +14359,7 @@
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -14305,7 +14379,7 @@
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
     </row>
-    <row r="14" spans="1:7" ht="15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -14325,7 +14399,7 @@
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
     </row>
-    <row r="15" spans="1:7" ht="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -14345,7 +14419,7 @@
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
     </row>
-    <row r="16" spans="1:7" ht="15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -14365,7 +14439,7 @@
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
     </row>
-    <row r="17" spans="1:7" ht="15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -14385,7 +14459,7 @@
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:7" ht="15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -14405,7 +14479,7 @@
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
     </row>
-    <row r="19" spans="1:7" ht="15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -14425,7 +14499,7 @@
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -14445,7 +14519,7 @@
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
     </row>
-    <row r="21" spans="1:7" ht="15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -14465,7 +14539,7 @@
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
     </row>
-    <row r="22" spans="1:7" ht="15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -14485,7 +14559,7 @@
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -14505,7 +14579,7 @@
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -14525,7 +14599,7 @@
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
     </row>
-    <row r="25" spans="1:7" ht="15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -14545,7 +14619,7 @@
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7" ht="15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -14565,7 +14639,7 @@
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="1:7" ht="15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -14585,7 +14659,7 @@
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
     </row>
-    <row r="28" spans="1:7" ht="15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -14605,7 +14679,7 @@
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
     </row>
-    <row r="29" spans="1:7" ht="15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -14625,7 +14699,7 @@
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
     </row>
-    <row r="30" spans="1:7" ht="15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -14645,7 +14719,7 @@
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
     </row>
-    <row r="31" spans="1:7" ht="15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -14665,7 +14739,7 @@
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
     </row>
-    <row r="32" spans="1:7" ht="15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -14685,7 +14759,7 @@
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
     </row>
-    <row r="33" spans="1:7" ht="15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -14705,7 +14779,7 @@
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
     </row>
-    <row r="34" spans="1:7" ht="15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -14725,7 +14799,7 @@
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
     </row>
-    <row r="35" spans="1:7" ht="15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="25">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -14745,7 +14819,7 @@
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
     </row>
-    <row r="36" spans="1:7" ht="15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -14765,7 +14839,7 @@
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
     </row>
-    <row r="37" spans="1:7" ht="15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="25">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -14785,7 +14859,7 @@
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
     </row>
-    <row r="38" spans="1:7" ht="15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="25">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -14805,7 +14879,7 @@
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
     </row>
-    <row r="39" spans="1:7" ht="15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="25">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -14825,7 +14899,7 @@
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
     </row>
-    <row r="40" spans="1:7" ht="15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="25">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -14845,7 +14919,7 @@
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
     </row>
-    <row r="41" spans="1:7" ht="15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="25">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -14865,7 +14939,7 @@
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
     </row>
-    <row r="42" spans="1:7" ht="15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="25">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -14888,27 +14962,28 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="10.7265625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -14916,7 +14991,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
@@ -14938,7 +15013,7 @@
       <c r="Q2" s="25"/>
       <c r="R2" s="25"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="51" t="s">
         <v>268</v>
@@ -14973,7 +15048,7 @@
       <c r="Q3" s="25"/>
       <c r="R3" s="25"/>
     </row>
-    <row r="4" spans="1:22" ht="15">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
       <c r="B4" s="53" t="s">
         <v>41</v>
@@ -15008,7 +15083,7 @@
       <c r="Q4" s="25"/>
       <c r="R4" s="25"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>234</v>
       </c>
@@ -15046,7 +15121,7 @@
       <c r="R5" s="28"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>235</v>
       </c>
@@ -15083,7 +15158,7 @@
       <c r="R6" s="28"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>236</v>
       </c>
@@ -15120,7 +15195,7 @@
       <c r="R7" s="28"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>237</v>
       </c>
@@ -15157,7 +15232,7 @@
       <c r="R8" s="28"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>238</v>
       </c>
@@ -15194,7 +15269,7 @@
       <c r="R9" s="28"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>239</v>
       </c>
@@ -15231,7 +15306,7 @@
       <c r="R10" s="28"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
         <v>240</v>
       </c>
@@ -15268,7 +15343,7 @@
       <c r="R11" s="28"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
         <v>241</v>
       </c>
@@ -15305,7 +15380,7 @@
       <c r="R12" s="28"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
         <v>242</v>
       </c>
@@ -15342,7 +15417,7 @@
       <c r="R13" s="28"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
         <v>243</v>
       </c>
@@ -15379,7 +15454,7 @@
       <c r="R14" s="28"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
         <v>244</v>
       </c>
@@ -15416,7 +15491,7 @@
       <c r="R15" s="28"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>245</v>
       </c>
@@ -15453,7 +15528,7 @@
       <c r="R16" s="28"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
         <v>246</v>
       </c>
@@ -15490,7 +15565,7 @@
       <c r="R17" s="28"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>247</v>
       </c>
@@ -15527,7 +15602,7 @@
       <c r="R18" s="28"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>248</v>
       </c>
@@ -15564,7 +15639,7 @@
       <c r="R19" s="28"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
         <v>249</v>
       </c>
@@ -15601,7 +15676,7 @@
       <c r="R20" s="28"/>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
         <v>250</v>
       </c>
@@ -15638,7 +15713,7 @@
       <c r="R21" s="28"/>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
         <v>251</v>
       </c>
@@ -15675,7 +15750,7 @@
       <c r="R22" s="28"/>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>252</v>
       </c>
@@ -15712,7 +15787,7 @@
       <c r="R23" s="28"/>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
         <v>253</v>
       </c>
@@ -15749,7 +15824,7 @@
       <c r="R24" s="28"/>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
         <v>254</v>
       </c>
@@ -15786,7 +15861,7 @@
       <c r="R25" s="28"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
         <v>255</v>
       </c>
@@ -15823,7 +15898,7 @@
       <c r="R26" s="28"/>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
         <v>256</v>
       </c>
@@ -15860,7 +15935,7 @@
       <c r="R27" s="28"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
         <v>257</v>
       </c>
@@ -15897,7 +15972,7 @@
       <c r="R28" s="28"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
         <v>258</v>
       </c>
@@ -15934,7 +16009,7 @@
       <c r="R29" s="28"/>
       <c r="V29" s="2"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
         <v>259</v>
       </c>
@@ -15971,7 +16046,7 @@
       <c r="R30" s="28"/>
       <c r="V30" s="2"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>260</v>
       </c>
@@ -16008,7 +16083,7 @@
       <c r="R31" s="28"/>
       <c r="V31" s="2"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
         <v>261</v>
       </c>
@@ -16045,7 +16120,7 @@
       <c r="R32" s="28"/>
       <c r="V32" s="2"/>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
         <v>262</v>
       </c>
@@ -16082,7 +16157,7 @@
       <c r="R33" s="28"/>
       <c r="V33" s="2"/>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
         <v>263</v>
       </c>
@@ -16119,7 +16194,7 @@
       <c r="R34" s="28"/>
       <c r="V34" s="2"/>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
         <v>264</v>
       </c>
@@ -16156,7 +16231,7 @@
       <c r="R35" s="28"/>
       <c r="V35" s="2"/>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="55" t="s">
         <v>265</v>
       </c>
@@ -16192,7 +16267,7 @@
       <c r="Q36" s="25"/>
       <c r="R36" s="25"/>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
     </row>
   </sheetData>
@@ -16202,26 +16277,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="63"/>
       <c r="B2" s="64" t="s">
         <v>185</v>
@@ -16241,7 +16316,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="24" t="s">
         <v>195</v>
@@ -16271,7 +16346,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="68"/>
       <c r="B4" s="69" t="s">
         <v>186</v>
@@ -16301,7 +16376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>133</v>
       </c>
@@ -16333,7 +16408,7 @@
         <v>11878.92</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
         <v>134</v>
       </c>
@@ -16365,7 +16440,7 @@
         <v>8336.5499999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
         <v>135</v>
       </c>
@@ -16397,7 +16472,7 @@
         <v>5364.14</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
         <v>136</v>
       </c>
@@ -16429,7 +16504,7 @@
         <v>5566.19</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
         <v>137</v>
       </c>
@@ -16461,7 +16536,7 @@
         <v>6381.97</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>138</v>
       </c>
@@ -16493,7 +16568,7 @@
         <v>5998.39</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>139</v>
       </c>
@@ -16525,7 +16600,7 @@
         <v>6186.17</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>140</v>
       </c>
@@ -16557,7 +16632,7 @@
         <v>5718.05</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>141</v>
       </c>
@@ -16589,7 +16664,7 @@
         <v>11971.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
         <v>142</v>
       </c>
@@ -16621,7 +16696,7 @@
         <v>9138.18</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="s">
         <v>143</v>
       </c>
@@ -16653,7 +16728,7 @@
         <v>10652.73</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="61" t="s">
         <v>144</v>
       </c>
@@ -16685,7 +16760,7 @@
         <v>5555.99</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
         <v>145</v>
       </c>
@@ -16717,7 +16792,7 @@
         <v>7401.92</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
         <v>146</v>
       </c>
@@ -16749,7 +16824,7 @@
         <v>5129.47</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="61" t="s">
         <v>147</v>
       </c>
@@ -16781,7 +16856,7 @@
         <v>6775.95</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
         <v>148</v>
       </c>
@@ -16813,7 +16888,7 @@
         <v>5032.1400000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
         <v>149</v>
       </c>
@@ -16845,7 +16920,7 @@
         <v>5726.73</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="61" t="s">
         <v>150</v>
       </c>
@@ -16877,7 +16952,7 @@
         <v>5870.12</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
         <v>151</v>
       </c>
@@ -16909,7 +16984,7 @@
         <v>7458.56</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="61" t="s">
         <v>152</v>
       </c>
@@ -16941,7 +17016,7 @@
         <v>4933.58</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
         <v>153</v>
       </c>
@@ -16973,7 +17048,7 @@
         <v>4776.3</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="61" t="s">
         <v>154</v>
       </c>
@@ -17005,7 +17080,7 @@
         <v>5018.6400000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="61" t="s">
         <v>155</v>
       </c>
@@ -17037,7 +17112,7 @@
         <v>5366.71</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
         <v>156</v>
       </c>
@@ -17069,7 +17144,7 @@
         <v>3901.71</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="61" t="s">
         <v>157</v>
       </c>
@@ -17101,7 +17176,7 @@
         <v>4561.33</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="61" t="s">
         <v>158</v>
       </c>
@@ -17133,7 +17208,7 @@
         <v>2967.56</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="61" t="s">
         <v>159</v>
       </c>
@@ -17165,7 +17240,7 @@
         <v>5114.68</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="61" t="s">
         <v>160</v>
       </c>
@@ -17197,7 +17272,7 @@
         <v>4146.24</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
         <v>161</v>
       </c>
@@ -17229,7 +17304,7 @@
         <v>5338.91</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
         <v>162</v>
       </c>
@@ -17261,7 +17336,7 @@
         <v>5351.36</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="61" t="s">
         <v>163</v>
       </c>
@@ -17300,21 +17375,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="24">
+    <row r="2" spans="1:8" ht="26" x14ac:dyDescent="0.25">
       <c r="A2" s="63"/>
       <c r="B2" s="71" t="s">
         <v>171</v>
@@ -17338,7 +17413,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="26" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="21" t="s">
         <v>128</v>
@@ -17362,7 +17437,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="68"/>
       <c r="B4" s="69" t="s">
         <v>41</v>
@@ -17386,7 +17461,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>133</v>
       </c>
@@ -17412,7 +17487,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>134</v>
       </c>
@@ -17438,7 +17513,7 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>135</v>
       </c>
@@ -17464,7 +17539,7 @@
         <v>1523.9</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>136</v>
       </c>
@@ -17490,7 +17565,7 @@
         <v>144.19999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>137</v>
       </c>
@@ -17516,7 +17591,7 @@
         <v>180.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>138</v>
       </c>
@@ -17542,7 +17617,7 @@
         <v>809.9</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>139</v>
       </c>
@@ -17568,7 +17643,7 @@
         <v>197.6</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>140</v>
       </c>
@@ -17594,7 +17669,7 @@
         <v>131.19999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>141</v>
       </c>
@@ -17620,7 +17695,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>142</v>
       </c>
@@ -17646,7 +17721,7 @@
         <v>415.9</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>143</v>
       </c>
@@ -17672,7 +17747,7 @@
         <v>863.3</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>144</v>
       </c>
@@ -17698,7 +17773,7 @@
         <v>1174.2</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>145</v>
       </c>
@@ -17724,7 +17799,7 @@
         <v>65.099999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>146</v>
       </c>
@@ -17750,7 +17825,7 @@
         <v>221.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>147</v>
       </c>
@@ -17776,7 +17851,7 @@
         <v>1259.8</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>148</v>
       </c>
@@ -17802,7 +17877,7 @@
         <v>1100.5</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>149</v>
       </c>
@@ -17828,7 +17903,7 @@
         <v>698.1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>150</v>
       </c>
@@ -17854,7 +17929,7 @@
         <v>1067.8</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>151</v>
       </c>
@@ -17880,7 +17955,7 @@
         <v>349.7</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>152</v>
       </c>
@@ -17906,7 +17981,7 @@
         <v>271.60000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>153</v>
       </c>
@@ -17932,7 +18007,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>154</v>
       </c>
@@ -17958,7 +18033,7 @@
         <v>759.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>155</v>
       </c>
@@ -17984,7 +18059,7 @@
         <v>307.3</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>156</v>
       </c>
@@ -18010,7 +18085,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>157</v>
       </c>
@@ -18036,7 +18111,7 @@
         <v>121.6</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>158</v>
       </c>
@@ -18062,7 +18137,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>159</v>
       </c>
@@ -18088,7 +18163,7 @@
         <v>322.60000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>160</v>
       </c>
@@ -18114,7 +18189,7 @@
         <v>130.69999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>161</v>
       </c>
@@ -18140,7 +18215,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>162</v>
       </c>
@@ -18166,7 +18241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>163</v>
       </c>
@@ -18199,21 +18274,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>59</v>
       </c>
@@ -18221,7 +18296,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
         <v>56</v>
       </c>
@@ -18240,7 +18315,7 @@
       <c r="H2" s="74"/>
       <c r="I2" s="73"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="80"/>
       <c r="B3" s="77" t="s">
         <v>41</v>
@@ -18257,7 +18332,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="73"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="81" t="s">
         <v>276</v>
       </c>
@@ -18276,7 +18351,7 @@
       <c r="H4" s="77"/>
       <c r="I4" s="25"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="81" t="s">
         <v>277</v>
       </c>
@@ -18295,7 +18370,7 @@
       <c r="H5" s="77"/>
       <c r="I5" s="25"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="81" t="s">
         <v>278</v>
       </c>
@@ -18314,7 +18389,7 @@
       <c r="H6" s="77"/>
       <c r="I6" s="25"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="81" t="s">
         <v>279</v>
       </c>
@@ -18333,7 +18408,7 @@
       <c r="H7" s="77"/>
       <c r="I7" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="81" t="s">
         <v>280</v>
       </c>
@@ -18352,7 +18427,7 @@
       <c r="H8" s="77"/>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="81" t="s">
         <v>281</v>
       </c>
@@ -18371,7 +18446,7 @@
       <c r="H9" s="77"/>
       <c r="I9" s="25"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="81" t="s">
         <v>282</v>
       </c>
@@ -18390,7 +18465,7 @@
       <c r="H10" s="77"/>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="81" t="s">
         <v>283</v>
       </c>
@@ -18409,7 +18484,7 @@
       <c r="H11" s="77"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="81" t="s">
         <v>284</v>
       </c>
@@ -18428,7 +18503,7 @@
       <c r="H12" s="77"/>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="81" t="s">
         <v>285</v>
       </c>
@@ -18447,7 +18522,7 @@
       <c r="H13" s="77"/>
       <c r="I13" s="25"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="81" t="s">
         <v>286</v>
       </c>
@@ -18466,7 +18541,7 @@
       <c r="H14" s="77"/>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="81" t="s">
         <v>287</v>
       </c>
@@ -18485,7 +18560,7 @@
       <c r="H15" s="77"/>
       <c r="I15" s="25"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="81" t="s">
         <v>288</v>
       </c>
@@ -18504,7 +18579,7 @@
       <c r="H16" s="77"/>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="81" t="s">
         <v>289</v>
       </c>
@@ -18523,7 +18598,7 @@
       <c r="H17" s="77"/>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="81" t="s">
         <v>290</v>
       </c>
@@ -18542,7 +18617,7 @@
       <c r="H18" s="77"/>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="81" t="s">
         <v>291</v>
       </c>
@@ -18561,7 +18636,7 @@
       <c r="H19" s="73"/>
       <c r="I19" s="25"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="83" t="s">
         <v>292</v>
       </c>
@@ -18580,7 +18655,7 @@
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="83" t="s">
         <v>293</v>
       </c>
@@ -18599,7 +18674,7 @@
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="83" t="s">
         <v>294</v>
       </c>
@@ -18618,7 +18693,7 @@
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="83" t="s">
         <v>295</v>
       </c>
@@ -18637,7 +18712,7 @@
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="83" t="s">
         <v>296</v>
       </c>
@@ -18656,7 +18731,7 @@
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="83" t="s">
         <v>297</v>
       </c>
@@ -18675,7 +18750,7 @@
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="83" t="s">
         <v>298</v>
       </c>
@@ -18694,7 +18769,7 @@
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="83" t="s">
         <v>299</v>
       </c>
@@ -18713,7 +18788,7 @@
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="83" t="s">
         <v>300</v>
       </c>
@@ -18732,7 +18807,7 @@
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="83" t="s">
         <v>301</v>
       </c>
@@ -18751,7 +18826,7 @@
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="83" t="s">
         <v>302</v>
       </c>
@@ -18770,7 +18845,7 @@
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="83" t="s">
         <v>303</v>
       </c>
@@ -18789,7 +18864,7 @@
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="83" t="s">
         <v>304</v>
       </c>
@@ -18808,7 +18883,7 @@
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="83" t="s">
         <v>305</v>
       </c>
@@ -18827,7 +18902,7 @@
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="83" t="s">
         <v>306</v>
       </c>
@@ -18846,7 +18921,7 @@
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
     </row>
-    <row r="36" spans="1:9" ht="169.5">
+    <row r="36" spans="1:9" ht="216" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>57</v>
       </c>
@@ -18858,28 +18933,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="84" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="33.75" customHeight="1">
+    <row r="2" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
         <v>56</v>
       </c>
@@ -18899,7 +18974,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="85"/>
       <c r="B3" s="86" t="s">
         <v>108</v>
@@ -18917,7 +18992,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="87" t="s">
         <v>60</v>
       </c>
@@ -18937,7 +19012,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="87" t="s">
         <v>61</v>
       </c>
@@ -18957,7 +19032,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="87" t="s">
         <v>62</v>
       </c>
@@ -18977,7 +19052,7 @@
         <v>6.21</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="87" t="s">
         <v>63</v>
       </c>
@@ -18997,7 +19072,7 @@
         <v>9.0399999999999991</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="87" t="s">
         <v>64</v>
       </c>
@@ -19017,7 +19092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="87" t="s">
         <v>65</v>
       </c>
@@ -19037,7 +19112,7 @@
         <v>8.11</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="87" t="s">
         <v>66</v>
       </c>
@@ -19057,7 +19132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="87" t="s">
         <v>67</v>
       </c>
@@ -19077,7 +19152,7 @@
         <v>6.97</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="87" t="s">
         <v>68</v>
       </c>
@@ -19097,7 +19172,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="87" t="s">
         <v>69</v>
       </c>
@@ -19117,7 +19192,7 @@
         <v>5.96</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="87" t="s">
         <v>70</v>
       </c>
@@ -19137,7 +19212,7 @@
         <v>5.61</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="87" t="s">
         <v>71</v>
       </c>
@@ -19157,7 +19232,7 @@
         <v>7.37</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="87" t="s">
         <v>72</v>
       </c>
@@ -19177,7 +19252,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="87" t="s">
         <v>73</v>
       </c>
@@ -19197,7 +19272,7 @@
         <v>5.47</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="87" t="s">
         <v>74</v>
       </c>
@@ -19217,7 +19292,7 @@
         <v>5.42</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="87" t="s">
         <v>75</v>
       </c>
@@ -19237,7 +19312,7 @@
         <v>4.2300000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="87" t="s">
         <v>76</v>
       </c>
@@ -19257,7 +19332,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="87" t="s">
         <v>77</v>
       </c>
@@ -19277,7 +19352,7 @@
         <v>5.81</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="87" t="s">
         <v>78</v>
       </c>
@@ -19297,7 +19372,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="87" t="s">
         <v>79</v>
       </c>
@@ -19317,7 +19392,7 @@
         <v>8.9499999999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="87" t="s">
         <v>80</v>
       </c>
@@ -19337,7 +19412,7 @@
         <v>9.4600000000000009</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="87" t="s">
         <v>81</v>
       </c>
@@ -19357,7 +19432,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="87" t="s">
         <v>82</v>
       </c>
@@ -19377,7 +19452,7 @@
         <v>7.26</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="87" t="s">
         <v>83</v>
       </c>
@@ -19397,7 +19472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="87" t="s">
         <v>84</v>
       </c>
@@ -19417,7 +19492,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="87" t="s">
         <v>85</v>
       </c>
@@ -19437,7 +19512,7 @@
         <v>7.14</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="87" t="s">
         <v>86</v>
       </c>
@@ -19457,7 +19532,7 @@
         <v>5.69</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="87" t="s">
         <v>87</v>
       </c>
@@ -19477,7 +19552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="87" t="s">
         <v>88</v>
       </c>
@@ -19497,7 +19572,7 @@
         <v>7.54</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="87" t="s">
         <v>89</v>
       </c>
@@ -19517,7 +19592,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="87" t="s">
         <v>90</v>
       </c>
@@ -19537,7 +19612,7 @@
         <v>8.8699999999999992</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="87" t="s">
         <v>91</v>
       </c>
@@ -19557,7 +19632,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="87" t="s">
         <v>92</v>
       </c>
@@ -19577,7 +19652,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="87" t="s">
         <v>93</v>
       </c>
@@ -19597,7 +19672,7 @@
         <v>5.32</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="87" t="s">
         <v>94</v>
       </c>
@@ -19617,7 +19692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="87" t="s">
         <v>95</v>
       </c>
@@ -19637,7 +19712,7 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="87" t="s">
         <v>96</v>
       </c>
@@ -19657,7 +19732,7 @@
         <v>9.64</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="87" t="s">
         <v>97</v>
       </c>
@@ -19677,7 +19752,7 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="87" t="s">
         <v>98</v>
       </c>
@@ -19697,7 +19772,7 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="87" t="s">
         <v>99</v>
       </c>
@@ -19717,7 +19792,7 @@
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="87" t="s">
         <v>100</v>
       </c>
@@ -19737,7 +19812,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="87" t="s">
         <v>101</v>
       </c>
@@ -19757,7 +19832,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="87" t="s">
         <v>102</v>
       </c>
@@ -19777,7 +19852,7 @@
         <v>5.21</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="87" t="s">
         <v>103</v>
       </c>
@@ -19797,7 +19872,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="87" t="s">
         <v>104</v>
       </c>
@@ -19817,7 +19892,7 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="87" t="s">
         <v>105</v>
       </c>
@@ -19837,7 +19912,7 @@
         <v>6.29</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="87" t="s">
         <v>106</v>
       </c>
@@ -19857,7 +19932,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="87" t="s">
         <v>107</v>
       </c>
@@ -19884,22 +19959,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="94" t="s">
         <v>314</v>
       </c>
@@ -19910,7 +19985,7 @@
       <c r="F1" s="95"/>
       <c r="G1" s="95"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>112</v>
       </c>
@@ -19928,7 +20003,7 @@
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
     </row>
-    <row r="3" spans="1:14" ht="15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="97" t="s">
         <v>119</v>
       </c>
@@ -19958,7 +20033,7 @@
       <c r="M3" s="25"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" ht="15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="38">
         <v>1978</v>
       </c>
@@ -19988,7 +20063,7 @@
       <c r="M4" s="25"/>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" spans="1:14" ht="15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="38">
         <v>1979</v>
       </c>
@@ -20018,7 +20093,7 @@
       <c r="M5" s="25"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="1:14" ht="15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="38">
         <v>1980</v>
       </c>
@@ -20048,7 +20123,7 @@
       <c r="M6" s="25"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="1:14" ht="15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="38">
         <v>1981</v>
       </c>
@@ -20078,7 +20153,7 @@
       <c r="M7" s="25"/>
       <c r="N7" s="31"/>
     </row>
-    <row r="8" spans="1:14" ht="15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="38">
         <v>1982</v>
       </c>
@@ -20108,7 +20183,7 @@
       <c r="M8" s="25"/>
       <c r="N8" s="31"/>
     </row>
-    <row r="9" spans="1:14" ht="15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="38">
         <v>1983</v>
       </c>
@@ -20138,7 +20213,7 @@
       <c r="M9" s="25"/>
       <c r="N9" s="31"/>
     </row>
-    <row r="10" spans="1:14" ht="15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="38">
         <v>1984</v>
       </c>
@@ -20168,7 +20243,7 @@
       <c r="M10" s="25"/>
       <c r="N10" s="31"/>
     </row>
-    <row r="11" spans="1:14" ht="15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>1985</v>
       </c>
@@ -20198,7 +20273,7 @@
       <c r="M11" s="25"/>
       <c r="N11" s="31"/>
     </row>
-    <row r="12" spans="1:14" ht="15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>1986</v>
       </c>
@@ -20228,7 +20303,7 @@
       <c r="M12" s="25"/>
       <c r="N12" s="31"/>
     </row>
-    <row r="13" spans="1:14" ht="15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>1987</v>
       </c>
@@ -20258,7 +20333,7 @@
       <c r="M13" s="25"/>
       <c r="N13" s="31"/>
     </row>
-    <row r="14" spans="1:14" ht="15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>1988</v>
       </c>
@@ -20288,7 +20363,7 @@
       <c r="M14" s="25"/>
       <c r="N14" s="31"/>
     </row>
-    <row r="15" spans="1:14" ht="15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>1989</v>
       </c>
@@ -20318,7 +20393,7 @@
       <c r="M15" s="25"/>
       <c r="N15" s="31"/>
     </row>
-    <row r="16" spans="1:14" ht="15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>1990</v>
       </c>
@@ -20348,7 +20423,7 @@
       <c r="M16" s="25"/>
       <c r="N16" s="31"/>
     </row>
-    <row r="17" spans="1:14" ht="15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>1991</v>
       </c>
@@ -20378,7 +20453,7 @@
       <c r="M17" s="25"/>
       <c r="N17" s="31"/>
     </row>
-    <row r="18" spans="1:14" ht="15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
         <v>1992</v>
       </c>
@@ -20408,7 +20483,7 @@
       <c r="M18" s="25"/>
       <c r="N18" s="31"/>
     </row>
-    <row r="19" spans="1:14" ht="15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>1993</v>
       </c>
@@ -20438,7 +20513,7 @@
       <c r="M19" s="25"/>
       <c r="N19" s="31"/>
     </row>
-    <row r="20" spans="1:14" ht="15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>1994</v>
       </c>
@@ -20468,7 +20543,7 @@
       <c r="M20" s="25"/>
       <c r="N20" s="31"/>
     </row>
-    <row r="21" spans="1:14" ht="15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="38">
         <v>1995</v>
       </c>
@@ -20498,7 +20573,7 @@
       <c r="M21" s="25"/>
       <c r="N21" s="31"/>
     </row>
-    <row r="22" spans="1:14" ht="15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="38">
         <v>1996</v>
       </c>
@@ -20528,7 +20603,7 @@
       <c r="M22" s="25"/>
       <c r="N22" s="31"/>
     </row>
-    <row r="23" spans="1:14" ht="15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="38">
         <v>1997</v>
       </c>
@@ -20558,7 +20633,7 @@
       <c r="M23" s="25"/>
       <c r="N23" s="31"/>
     </row>
-    <row r="24" spans="1:14" ht="15">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="38">
         <v>1998</v>
       </c>
@@ -20588,7 +20663,7 @@
       <c r="M24" s="25"/>
       <c r="N24" s="31"/>
     </row>
-    <row r="25" spans="1:14" ht="15">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="38">
         <v>1999</v>
       </c>
@@ -20618,7 +20693,7 @@
       <c r="M25" s="25"/>
       <c r="N25" s="31"/>
     </row>
-    <row r="26" spans="1:14" ht="15">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <v>2000</v>
       </c>
@@ -20648,7 +20723,7 @@
       <c r="M26" s="25"/>
       <c r="N26" s="31"/>
     </row>
-    <row r="27" spans="1:14" ht="15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
         <v>2001</v>
       </c>
@@ -20678,7 +20753,7 @@
       <c r="M27" s="25"/>
       <c r="N27" s="31"/>
     </row>
-    <row r="28" spans="1:14" ht="15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="38">
         <v>2002</v>
       </c>
@@ -20708,7 +20783,7 @@
       <c r="M28" s="25"/>
       <c r="N28" s="31"/>
     </row>
-    <row r="29" spans="1:14" ht="15">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="38">
         <v>2003</v>
       </c>
@@ -20738,7 +20813,7 @@
       <c r="M29" s="25"/>
       <c r="N29" s="31"/>
     </row>
-    <row r="30" spans="1:14" ht="15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="38">
         <v>2004</v>
       </c>
@@ -20768,7 +20843,7 @@
       <c r="M30" s="25"/>
       <c r="N30" s="31"/>
     </row>
-    <row r="31" spans="1:14" ht="15">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="38">
         <v>2005</v>
       </c>
@@ -20798,7 +20873,7 @@
       <c r="M31" s="25"/>
       <c r="N31" s="31"/>
     </row>
-    <row r="32" spans="1:14" ht="15">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
         <v>2006</v>
       </c>
@@ -20828,7 +20903,7 @@
       <c r="M32" s="25"/>
       <c r="N32" s="31"/>
     </row>
-    <row r="33" spans="1:14" ht="15">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="38">
         <v>2007</v>
       </c>
@@ -20858,7 +20933,7 @@
       <c r="M33" s="25"/>
       <c r="N33" s="31"/>
     </row>
-    <row r="34" spans="1:14" ht="15">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="38">
         <v>2008</v>
       </c>
@@ -20888,7 +20963,7 @@
       <c r="M34" s="25"/>
       <c r="N34" s="31"/>
     </row>
-    <row r="35" spans="1:14" ht="15">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="38">
         <v>2009</v>
       </c>
@@ -20918,7 +20993,7 @@
       <c r="M35" s="25"/>
       <c r="N35" s="31"/>
     </row>
-    <row r="36" spans="1:14" ht="15">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="38">
         <v>2010</v>
       </c>
@@ -20948,7 +21023,7 @@
       <c r="M36" s="25"/>
       <c r="N36" s="31"/>
     </row>
-    <row r="37" spans="1:14" ht="15">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="38">
         <v>2011</v>
       </c>
@@ -20978,7 +21053,7 @@
       <c r="M37" s="25"/>
       <c r="N37" s="31"/>
     </row>
-    <row r="38" spans="1:14" ht="15">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="38">
         <v>2012</v>
       </c>
@@ -21008,7 +21083,7 @@
       <c r="M38" s="25"/>
       <c r="N38" s="31"/>
     </row>
-    <row r="39" spans="1:14" ht="15">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="38">
         <v>2013</v>
       </c>
@@ -21038,7 +21113,7 @@
       <c r="M39" s="25"/>
       <c r="N39" s="31"/>
     </row>
-    <row r="40" spans="1:14" ht="15">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <f>A39+1</f>
         <v>2014</v>
@@ -21069,7 +21144,7 @@
       <c r="M40" s="25"/>
       <c r="N40" s="31"/>
     </row>
-    <row r="41" spans="1:14" ht="15">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <f>A40+1</f>
         <v>2015</v>
@@ -21100,7 +21175,7 @@
       <c r="M41" s="25"/>
       <c r="N41" s="31"/>
     </row>
-    <row r="42" spans="1:14" ht="15">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <f>A41+1</f>
         <v>2016</v>
@@ -21131,7 +21206,7 @@
       <c r="M42" s="25"/>
       <c r="N42" s="31"/>
     </row>
-    <row r="43" spans="1:14" ht="15">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
         <f>A42+1</f>
         <v>2017</v>
@@ -21162,7 +21237,7 @@
       <c r="M43" s="25"/>
       <c r="N43" s="31"/>
     </row>
-    <row r="44" spans="1:14" ht="15">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <v>2018</v>
       </c>
@@ -21192,13 +21267,13 @@
       <c r="M44" s="25"/>
       <c r="N44" s="31"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
   </sheetData>
